--- a/smartclassonlinesel/FlipLearn/Results/snapshots/Admin_Execution_Results.xlsx
+++ b/smartclassonlinesel/FlipLearn/Results/snapshots/Admin_Execution_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Totaltime: 23798 MS</t>
+    <t>Totaltime: 121 MS</t>
   </si>
   <si>
     <t>Fliplearn - Home</t>
@@ -59,7 +59,7 @@
     <t>Working</t>
   </si>
   <si>
-    <t>Totaltime: 88 MS</t>
+    <t>Totaltime: 64 MS</t>
   </si>
   <si>
     <t>Fliplearn - Login</t>
@@ -68,16 +68,31 @@
     <t>http://www.fliplearn.com/site/login</t>
   </si>
   <si>
-    <t>test.admin</t>
-  </si>
-  <si>
-    <t>Totaltime: 187 MS</t>
+    <t>admin.fdab</t>
+  </si>
+  <si>
+    <t>Totaltime: 154 MS</t>
   </si>
   <si>
     <t>Fliplearn</t>
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Totaltime: 73 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - WallPosts</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/wallPosts</t>
   </si>
 </sst>
 </file>
@@ -307,6 +322,33 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
